--- a/Experiment 2.xlsx
+++ b/Experiment 2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEM 7 NOTES\PLANT DESIGN &amp; ECONOMICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1MS21CH021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA66E242-FFBC-4A75-B614-E32C77A0897F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8F963FBC-A8CB-4CAA-9E3F-58F07EFA1C20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$30</definedName>
@@ -25,7 +25,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Components</t>
   </si>
@@ -174,12 +174,63 @@
   <si>
     <t>Difference</t>
   </si>
+  <si>
+    <t>Energy Balance</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>Stioc.</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>∆</t>
+  </si>
+  <si>
+    <t>∆Hf</t>
+  </si>
+  <si>
+    <t>∆Hrxn</t>
+  </si>
+  <si>
+    <t>In T©</t>
+  </si>
+  <si>
+    <t>∆Hsensible</t>
+  </si>
+  <si>
+    <t>Out  T©</t>
+  </si>
+  <si>
+    <t>conversion(A)</t>
+  </si>
+  <si>
+    <t>Heat of Reaction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,6 +281,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +337,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,8 +946,8 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="16" name="TextBox 15">
@@ -1012,7 +1093,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1025,7 +1106,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1051,7 +1132,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1065,7 +1146,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1103,7 +1184,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1128,7 +1209,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1180,7 +1261,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1218,7 +1299,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1243,7 +1324,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1257,23 +1338,11 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐶</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-IN" sz="1600" b="0" i="1" baseline="0">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝐻</m:t>
+                          <m:t>𝐶𝐻</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-IN" sz="1600" b="0" i="1" baseline="-25000">
@@ -1295,7 +1364,7 @@
                               <a:schemeClr val="dk1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1313,7 +1382,7 @@
             </xdr:txBody>
           </xdr:sp>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="16" name="TextBox 15">
@@ -1881,8 +1950,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>504825</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -1926,7 +1995,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSubSup>
@@ -2029,7 +2097,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -2156,8 +2224,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>426511</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -2201,7 +2269,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSubSup>
@@ -2271,7 +2338,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -2383,8 +2450,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="528639" cy="504690"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -2426,6 +2493,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2489,7 +2557,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -2565,8 +2633,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="528639" cy="506292"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -2608,6 +2676,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2671,7 +2740,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -2752,8 +2821,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>504825</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -2797,7 +2866,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSubSup>
@@ -2900,7 +2968,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -3027,8 +3095,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>485775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -3072,7 +3140,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSubSup>
@@ -3175,7 +3242,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -3302,8 +3369,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -3347,7 +3414,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSubSup>
@@ -3425,7 +3491,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -3550,8 +3616,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -3595,7 +3661,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSubSup>
@@ -3665,7 +3730,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -3782,8 +3847,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -3827,7 +3892,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSubSup>
@@ -3897,7 +3961,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -4300,11 +4364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4057A2C9-DB06-45B5-B787-94DC16C98F03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4563,8 +4627,244 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <f>D8-C16</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F8">
+        <v>-393.25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>700</v>
+      </c>
+      <c r="K8">
+        <v>30.975000000000001</v>
+      </c>
+      <c r="L8">
+        <v>500</v>
+      </c>
+      <c r="M8">
+        <v>20.995999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f>D9+C9*$C$16</f>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="L9">
+        <v>500</v>
+      </c>
+      <c r="M9">
+        <v>13.826000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E12" si="0">D10+C10*$C$16</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F10">
+        <v>-241.83500000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>500</v>
+      </c>
+      <c r="M10">
+        <v>17.010000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F11">
+        <v>-74.847999999999999</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>500</v>
+      </c>
+      <c r="M11">
+        <v>23.126000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>SUM(D8:D11)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <f>C15*D8</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>-79</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>